--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail13 Features.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2484,29 +2484,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2527,115 +2525,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2652,72 +2640,66 @@
         <v>1.777633108704149e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.693634123658928</v>
+        <v>1.224783629259876e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.100943324690828</v>
+        <v>4.050563386153373e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.224783629259876e-06</v>
+        <v>-0.08475147852364552</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.050563386153373e-06</v>
+        <v>0.3780471280876963</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08475147852364552</v>
+        <v>0.1497639549059942</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3780471280876963</v>
+        <v>1.436878568463766</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1497639549059942</v>
+        <v>1.416489141582198</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.3648697926531</v>
+        <v>4.983999025200241</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.416489141582198</v>
+        <v>2.790595104677891e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.983999025200241</v>
+        <v>11995354.29863166</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.790595104677891e-14</v>
+        <v>6.788866206093168e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11995354.29863166</v>
+        <v>4.015346127858391</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.788866206093168e-06</v>
+        <v>0.0001753993945528996</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.015346127858391</v>
+        <v>11.70788232264099</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001753993945528996</v>
+        <v>1.088636802176388</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.70788232264099</v>
+        <v>0.02404278579617027</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.088636802176388</v>
+        <v>2.632386790532902</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02404278579617027</v>
+        <v>0.9370075656746097</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.632386790532902</v>
+        <v>1.826882274789884</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9370075656746097</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.826882274789884</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1716852920280936</v>
       </c>
     </row>
@@ -2732,72 +2714,66 @@
         <v>1.444004857992987e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5003101141745691</v>
+        <v>8.735757507340573e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.23426404644696</v>
+        <v>4.038544669762269e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.735757507340573e-07</v>
+        <v>-0.06460508460747381</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.038544669762269e-06</v>
+        <v>0.3516755840576819</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06460508460747381</v>
+        <v>0.1275740920784597</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3516755840576819</v>
+        <v>1.433670284096257</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1275740920784597</v>
+        <v>1.417187237609292</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.362581121641292</v>
+        <v>4.985898973746552</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.417187237609292</v>
+        <v>2.78846871706308e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.985898973746552</v>
+        <v>12000874.66337368</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.78846871706308e-14</v>
+        <v>6.768142113872922e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12000874.66337368</v>
+        <v>4.015980327052938</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.768142113872922e-06</v>
+        <v>0.0001564237423201639</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.015980327052938</v>
+        <v>9.989117031382005</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001564237423201639</v>
+        <v>1.195018545669499</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.989117031382005</v>
+        <v>0.01560834566511334</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.195018545669499</v>
+        <v>2.995818844989308</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01560834566511334</v>
+        <v>0.9376106568932518</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.995818844989308</v>
+        <v>1.801359339872139</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9376106568932518</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.801359339872139</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1784417726610899</v>
       </c>
     </row>
@@ -2812,72 +2788,66 @@
         <v>1.286069690195856e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2013151494438746</v>
+        <v>6.203010325751559e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8424141953411439</v>
+        <v>4.031404648651958e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.203010325751559e-07</v>
+        <v>-0.04051943570906196</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.031404648651958e-06</v>
+        <v>0.3068705503031506</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04051943570906196</v>
+        <v>0.09563349499501886</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3068705503031506</v>
+        <v>1.432260265737137</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09563349499501886</v>
+        <v>1.407625785212024</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.360023949199073</v>
+        <v>4.984028869076726</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.407625785212024</v>
+        <v>2.790561685157873e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.984028869076726</v>
+        <v>12005236.31438586</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.790561685157873e-14</v>
+        <v>6.778633941276079e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>12005236.31438586</v>
+        <v>4.021916533762307</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.778633941276079e-06</v>
+        <v>0.0001625471679072768</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4.021916533762307</v>
+        <v>8.551101635909731</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001625471679072768</v>
+        <v>1.555025200391013</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.551101635909731</v>
+        <v>0.0118856665985412</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.555025200391013</v>
+        <v>3.186506448952036</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0118856665985412</v>
+        <v>0.9383251049981997</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.186506448952036</v>
+        <v>1.796712498374161</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9383251049981997</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.796712498374161</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1773967860683455</v>
       </c>
     </row>
@@ -2892,72 +2862,66 @@
         <v>1.228919692074975e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3972369149712997</v>
+        <v>4.404735395593942e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.148330115363254</v>
+        <v>4.027760830107531e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.404735395593942e-07</v>
+        <v>-0.01841020195089082</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.027760830107531e-06</v>
+        <v>0.2616452159299265</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01841020195089082</v>
+        <v>0.06869997401899545</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2616452159299265</v>
+        <v>1.442434331156829</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06869997401899545</v>
+        <v>1.416341879885517</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.366479733625637</v>
+        <v>4.977455607426067</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.416341879885517</v>
+        <v>2.797937021298457e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.977455607426067</v>
+        <v>12088728.78897172</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.797937021298457e-14</v>
+        <v>6.848857356670308e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>12088728.78897172</v>
+        <v>4.08883140184397</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.848857356670308e-06</v>
+        <v>0.0001684741113751883</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.08883140184397</v>
+        <v>9.418490415296944</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001684741113751883</v>
+        <v>1.370312809574915</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.418490415296944</v>
+        <v>0.01494499501982396</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.370312809574915</v>
+        <v>3.08333437760154</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01494499501982396</v>
+        <v>0.9395927960894344</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.08333437760154</v>
+        <v>1.810911249917778</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9395927960894344</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.810911249917778</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1752141830886433</v>
       </c>
     </row>
@@ -3334,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.478370192026815</v>
+        <v>1.477399261767122</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.640093048358483</v>
@@ -3423,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494178396754009</v>
+        <v>1.490706192993849</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.59493952164475</v>
@@ -3512,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.529829106848889</v>
+        <v>1.522958723909572</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.520626186468359</v>
@@ -3601,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.556124981035362</v>
+        <v>1.548596470567743</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.582617999094599</v>
@@ -3690,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58929834872954</v>
+        <v>1.574202593730277</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.245155276289815</v>
@@ -3779,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610320259803122</v>
+        <v>1.591398078516091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.676592155255403</v>
@@ -3868,7 +3832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620232947531167</v>
+        <v>1.601591484438127</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.732499084513917</v>
@@ -3957,7 +3921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617484066017656</v>
+        <v>1.59279504698823</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.558111004213776</v>
@@ -4046,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.62064924120771</v>
+        <v>1.597059775756901</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.597175037651194</v>
@@ -4135,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638735843482607</v>
+        <v>1.611468031676215</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.730014192303846</v>
@@ -4224,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618475326477345</v>
+        <v>1.591234658823097</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640728067905909</v>
@@ -4313,7 +4277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62378049240676</v>
+        <v>1.595306481489786</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.647558964815296</v>
@@ -4402,7 +4366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637374348265681</v>
+        <v>1.607085729082574</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.695372293236005</v>
@@ -4491,7 +4455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653133432567866</v>
+        <v>1.615550142636223</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.873888390880952</v>
@@ -4580,7 +4544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.649059148681555</v>
+        <v>1.619445479594691</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.613366875532042</v>
@@ -4669,7 +4633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.645812556799322</v>
+        <v>1.619105082236289</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.64593789596424</v>
@@ -4758,7 +4722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.637453057492724</v>
+        <v>1.612020903038468</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.683018699114458</v>
@@ -4847,7 +4811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.632293479035263</v>
+        <v>1.607798142171804</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.719542875077409</v>
@@ -4936,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.62862393098708</v>
+        <v>1.605104791186281</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.611208654388324</v>
@@ -5025,7 +4989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.614462524693461</v>
+        <v>1.592522474746803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.796352974171526</v>
@@ -5114,7 +5078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628237800924279</v>
+        <v>1.606951239764824</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.728822518277888</v>
@@ -5203,7 +5167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632653813650294</v>
+        <v>1.61018343081984</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.551626679355217</v>
@@ -5292,7 +5256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658448991284749</v>
+        <v>1.62546855415042</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.619702497464082</v>
@@ -5381,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.625739853312605</v>
+        <v>1.59861552811736</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.714037509743646</v>
@@ -5470,7 +5434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626584412322466</v>
+        <v>1.597219366989038</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.004998881755895</v>
@@ -5559,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634517109573012</v>
+        <v>1.606299462324128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.004245906445789</v>
@@ -5648,7 +5612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623931757976063</v>
+        <v>1.597905305189209</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.677095389971064</v>
@@ -5737,7 +5701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.581191913193447</v>
+        <v>1.562504161416889</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.728028373839738</v>
@@ -5826,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581282409610635</v>
+        <v>1.561676060676113</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.692852052306506</v>
@@ -5915,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.575278492316358</v>
+        <v>1.555209592218386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.774181903232713</v>
@@ -6004,7 +5968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559326619616328</v>
+        <v>1.540259166112254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.765384140196537</v>
@@ -6093,7 +6057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.562412844532737</v>
+        <v>1.54479610790488</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.771145714275129</v>
@@ -6182,7 +6146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.551922644450675</v>
+        <v>1.531362509355294</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.766336382019277</v>
@@ -6271,7 +6235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.53482763256974</v>
+        <v>1.51675621736123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.724387795915623</v>
@@ -6360,7 +6324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.547111089155494</v>
+        <v>1.527754931558966</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.663039734873835</v>
@@ -6449,7 +6413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534230408653221</v>
+        <v>1.511365626110209</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.64641145587616</v>
@@ -6538,7 +6502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531698099554667</v>
+        <v>1.505439667914853</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.831274543868536</v>
@@ -6627,7 +6591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.534429004963554</v>
+        <v>1.508409060510717</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.471088369444144</v>
@@ -6716,7 +6680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536315069756617</v>
+        <v>1.511781009887277</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.561744912368057</v>
@@ -6805,7 +6769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.530753556221054</v>
+        <v>1.500874100418456</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.694700180673658</v>
@@ -6894,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522408932053281</v>
+        <v>1.492853503415916</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.767927828917951</v>
@@ -6983,7 +6947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.534711559075446</v>
+        <v>1.496170042718042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.586795381928911</v>
@@ -7072,7 +7036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.545070714814929</v>
+        <v>1.510117962644182</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.775345416119152</v>
@@ -7161,7 +7125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551586555944744</v>
+        <v>1.512716350194149</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.703786836921631</v>
@@ -7250,7 +7214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557710308929784</v>
+        <v>1.513088393115874</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.651807159453431</v>
@@ -7339,7 +7303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577920056669048</v>
+        <v>1.526906282059336</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.613654224199897</v>
@@ -7428,7 +7392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570748718153569</v>
+        <v>1.522317574614593</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.538772298962356</v>
@@ -7517,7 +7481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.573915917503882</v>
+        <v>1.525465839963759</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.732914301143776</v>
@@ -7606,7 +7570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57921012785693</v>
+        <v>1.527481373377202</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.727205765797282</v>
@@ -7892,7 +7856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516280647582349</v>
+        <v>1.493427796540105</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.654917986720647</v>
@@ -7981,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517290919964296</v>
+        <v>1.494626477684389</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.704494158472374</v>
@@ -8070,7 +8034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.524953022570486</v>
+        <v>1.5019700379407</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.474005956514829</v>
@@ -8159,7 +8123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.532366701664889</v>
+        <v>1.51110579243945</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.445807975746296</v>
@@ -8248,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.527696318496392</v>
+        <v>1.503739615609198</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.335971716047698</v>
@@ -8337,7 +8301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.527767939977481</v>
+        <v>1.502256526875156</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.533409076302645</v>
@@ -8426,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561860241509244</v>
+        <v>1.534556253096824</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.857491542069816</v>
@@ -8515,7 +8479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.57860833715652</v>
+        <v>1.547810866601263</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.817592387753361</v>
@@ -8604,7 +8568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59563742562709</v>
+        <v>1.562291923700796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.88808234935928</v>
@@ -8693,7 +8657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60352928910167</v>
+        <v>1.568258970142366</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.861150352865406</v>
@@ -8782,7 +8746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600081193122316</v>
+        <v>1.572506298544136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.86033365875952</v>
@@ -8871,7 +8835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586733955520651</v>
+        <v>1.561165795757855</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.15158753850157</v>
@@ -8960,7 +8924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.583914398527633</v>
+        <v>1.558537101346648</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.071653064814883</v>
@@ -9049,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589806692441382</v>
+        <v>1.564727525312917</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.856217394842801</v>
@@ -9138,7 +9102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598594966657876</v>
+        <v>1.572526053193671</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.239300480992256</v>
@@ -9227,7 +9191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584544059055985</v>
+        <v>1.559309486215968</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.926529987907811</v>
@@ -9316,7 +9280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59157264003607</v>
+        <v>1.562584656024974</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.077425155052246</v>
@@ -9405,7 +9369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582720672453068</v>
+        <v>1.556208895807225</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.904694157034405</v>
@@ -9494,7 +9458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57869907359161</v>
+        <v>1.553350900675788</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.030057558774042</v>
@@ -9583,7 +9547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5828078275218</v>
+        <v>1.554369419849942</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.981797937502694</v>
@@ -9672,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592827072694821</v>
+        <v>1.557254987003916</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.166442845991627</v>
@@ -9761,7 +9725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.589057906795099</v>
+        <v>1.548413135264157</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.169283294620013</v>
@@ -9850,7 +9814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588838130855941</v>
+        <v>1.541502611003083</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.223790687335973</v>
@@ -9939,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.586682106806629</v>
+        <v>1.538523214192685</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.12199140413451</v>
@@ -10028,7 +9992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590990680968833</v>
+        <v>1.539546912489099</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.575187230231062</v>
@@ -10117,7 +10081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593486270853629</v>
+        <v>1.532535879872939</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.752708222403665</v>
@@ -10206,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586737855146904</v>
+        <v>1.52301848348012</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.216172558881849</v>
@@ -10295,7 +10259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585852640257445</v>
+        <v>1.515509942519624</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.175978399303346</v>
@@ -10384,7 +10348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.582814284314306</v>
+        <v>1.507577293699286</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.269926456270362</v>
@@ -10473,7 +10437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582324201087897</v>
+        <v>1.503869589997615</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.022929023003213</v>
@@ -10562,7 +10526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583204951030716</v>
+        <v>1.506331420887134</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.863287197058479</v>
@@ -10651,7 +10615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.57519974733134</v>
+        <v>1.499800765564783</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.325255151279688</v>
@@ -10740,7 +10704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.582951588446089</v>
+        <v>1.506101652981283</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.300335537442045</v>
@@ -10829,7 +10793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57941716546709</v>
+        <v>1.495981836965309</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.130487966342819</v>
@@ -10918,7 +10882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580608913970373</v>
+        <v>1.494875735753858</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.096720931895142</v>
@@ -11007,7 +10971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.576036974612923</v>
+        <v>1.489629713918043</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.025910047274443</v>
@@ -11096,7 +11060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56606991948643</v>
+        <v>1.481040953486381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.278441904344463</v>
@@ -11185,7 +11149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.551547817376235</v>
+        <v>1.473348304783336</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.19133470159131</v>
@@ -11274,7 +11238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543767996258777</v>
+        <v>1.468947925328439</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.875544569819859</v>
@@ -11363,7 +11327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535070457887197</v>
+        <v>1.46721153220613</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.97676196337633</v>
@@ -11452,7 +11416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.531481456321234</v>
+        <v>1.467440245943403</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.205730187045182</v>
@@ -11541,7 +11505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540187624105897</v>
+        <v>1.469724727643912</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.837422695787411</v>
@@ -11630,7 +11594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.550887164037471</v>
+        <v>1.478170803980066</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.9353862578084</v>
@@ -11719,7 +11683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.556575824202947</v>
+        <v>1.488570710712845</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.860413790110587</v>
@@ -11808,7 +11772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569848881529248</v>
+        <v>1.498852207737374</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.03807859635714</v>
@@ -11897,7 +11861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57167691286382</v>
+        <v>1.49626893645304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.000092475332498</v>
@@ -11986,7 +11950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566692406097594</v>
+        <v>1.49500507602049</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.994704033052193</v>
@@ -12075,7 +12039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561366939182281</v>
+        <v>1.488703228255406</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.104664199069291</v>
@@ -12164,7 +12128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.561564020615706</v>
+        <v>1.491385622903128</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.975806108189083</v>
@@ -12450,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483554734818071</v>
+        <v>1.455582450847068</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.953586282203417</v>
@@ -12539,7 +12503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.506059745925645</v>
+        <v>1.471392686679045</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.014001073491803</v>
@@ -12628,7 +12592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507109468499807</v>
+        <v>1.470052837471655</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.91688384590168</v>
@@ -12717,7 +12681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518030458680609</v>
+        <v>1.474716049761325</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.773884365407696</v>
@@ -12806,7 +12770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53245287730569</v>
+        <v>1.480367926657696</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.210609285099142</v>
@@ -12895,7 +12859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.527417458885699</v>
+        <v>1.474760880496595</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.094204071199833</v>
@@ -12984,7 +12948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533702337849923</v>
+        <v>1.476942588771961</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.155137568114077</v>
@@ -13073,7 +13037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.544877803155899</v>
+        <v>1.487330230236605</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.157790966713697</v>
@@ -13162,7 +13126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.553275188467103</v>
+        <v>1.486119963654695</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.726228512458464</v>
@@ -13251,7 +13215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575478681549247</v>
+        <v>1.503965472741858</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.865459035746451</v>
@@ -13340,7 +13304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573128538018925</v>
+        <v>1.504478936295435</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.337152210824221</v>
@@ -13429,7 +13393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.574853447721964</v>
+        <v>1.504792177640837</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.190037259933082</v>
@@ -13518,7 +13482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580142524805178</v>
+        <v>1.510071231846146</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.054782443448924</v>
@@ -13607,7 +13571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.579125331769344</v>
+        <v>1.510491069808062</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.309488678838409</v>
@@ -13696,7 +13660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571381650327534</v>
+        <v>1.507885136964101</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.141941630158394</v>
@@ -13785,7 +13749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567843008434965</v>
+        <v>1.500809428872206</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.006982185470996</v>
@@ -13874,7 +13838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547499304581546</v>
+        <v>1.484542470703361</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.166590091014289</v>
@@ -13963,7 +13927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.551926350216056</v>
+        <v>1.494040847891348</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.147965038371731</v>
@@ -14052,7 +14016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550013216584553</v>
+        <v>1.495271916801545</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.687017671042456</v>
@@ -14141,7 +14105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558159419072328</v>
+        <v>1.506141566829795</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.768542145758854</v>
@@ -14230,7 +14194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569894953564884</v>
+        <v>1.517965771131273</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.992277331590072</v>
@@ -14319,7 +14283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565911712344136</v>
+        <v>1.517800121689544</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.936918420374816</v>
@@ -14408,7 +14372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573297611390614</v>
+        <v>1.519093616822548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.150324839028848</v>
@@ -14497,7 +14461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552761908707283</v>
+        <v>1.497652584998824</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.103716323879426</v>
@@ -14586,7 +14550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55682045844084</v>
+        <v>1.497551468097573</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.705516770629821</v>
@@ -14675,7 +14639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.553649715882833</v>
+        <v>1.495388490924853</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.748529751944091</v>
@@ -14764,7 +14728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543564594198276</v>
+        <v>1.487512655092128</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.008159893282894</v>
@@ -14853,7 +14817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533847170482014</v>
+        <v>1.47820541968305</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.047473315779415</v>
@@ -14942,7 +14906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.530887990005893</v>
+        <v>1.472485580770916</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.680752104284107</v>
@@ -15031,7 +14995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.530828746467447</v>
+        <v>1.467582272779537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.81379325479754</v>
@@ -15120,7 +15084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.52621714211491</v>
+        <v>1.463293424293318</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.546788442245261</v>
@@ -15209,7 +15173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528991335224733</v>
+        <v>1.466340557413253</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.92277533866125</v>
@@ -15298,7 +15262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526430214206774</v>
+        <v>1.455444404463207</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.011129038786171</v>
@@ -15387,7 +15351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519690458510496</v>
+        <v>1.447983220765888</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.150165786274814</v>
@@ -15476,7 +15440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514565456924523</v>
+        <v>1.437031693342676</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.851684536548325</v>
@@ -15565,7 +15529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.503445443541827</v>
+        <v>1.431742034311068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.678814131222771</v>
@@ -15654,7 +15618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.483622553812721</v>
+        <v>1.40493033932448</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.873725485723895</v>
@@ -15743,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.470444159596512</v>
+        <v>1.392117664946839</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.82218074041028</v>
@@ -15832,7 +15796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.462261708825995</v>
+        <v>1.391307762314556</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.666597612738761</v>
@@ -15921,7 +15885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.466281099433705</v>
+        <v>1.389390037798583</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.822403830761738</v>
@@ -16010,7 +15974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.467840364584346</v>
+        <v>1.387696687046671</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.82511466234722</v>
@@ -16099,7 +16063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.473524557692195</v>
+        <v>1.390526880265661</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.878117578764709</v>
@@ -16188,7 +16152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.473985260862147</v>
+        <v>1.390408576834548</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.898007881751183</v>
@@ -16277,7 +16241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.469219811022151</v>
+        <v>1.38298168522248</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.550398149201563</v>
@@ -16366,7 +16330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.475664645164845</v>
+        <v>1.386740729660218</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.688621479586016</v>
@@ -16455,7 +16419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.482252671410898</v>
+        <v>1.389900795363107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.852835758044725</v>
@@ -16544,7 +16508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475714285155423</v>
+        <v>1.384136758757105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.74130261186948</v>
@@ -16633,7 +16597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.473629471656604</v>
+        <v>1.390832470800105</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.575282207779676</v>
@@ -16722,7 +16686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.477312694552639</v>
+        <v>1.395133912467264</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.700909280249126</v>
@@ -17008,7 +16972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.264862576531955</v>
+        <v>1.245945308332961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.052131616223589</v>
@@ -17097,7 +17061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.25774764688387</v>
+        <v>1.229369091220671</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.07278767406707</v>
@@ -17186,7 +17150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.267975553917724</v>
+        <v>1.231098451939419</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.028285211728084</v>
@@ -17275,7 +17239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.250820730076595</v>
+        <v>1.22107548746641</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.873729049870233</v>
@@ -17364,7 +17328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.252699421296723</v>
+        <v>1.223748720576111</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.067065132739238</v>
@@ -17453,7 +17417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.242751091953605</v>
+        <v>1.210083221696702</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.07393018717496</v>
@@ -17542,7 +17506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.245518812458714</v>
+        <v>1.21628947798807</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.987886399402486</v>
@@ -17631,7 +17595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.255068293013545</v>
+        <v>1.224896846014598</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.019019285321561</v>
@@ -17720,7 +17684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.255397244723439</v>
+        <v>1.23041703207845</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.099861642703891</v>
@@ -17809,7 +17773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.269526811051447</v>
+        <v>1.229754826166622</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.938488268241152</v>
@@ -17898,7 +17862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.230486964525753</v>
+        <v>1.206443529292559</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.94671657332588</v>
@@ -17987,7 +17951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.22800122935415</v>
+        <v>1.208058582013319</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.927872844494057</v>
@@ -18076,7 +18040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.247568074220199</v>
+        <v>1.228515430876821</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.873144187964985</v>
@@ -18165,7 +18129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.266853041196226</v>
+        <v>1.242824484766008</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.869750784164236</v>
@@ -18254,7 +18218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.260421479675508</v>
+        <v>1.233178788146753</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.890312185742935</v>
@@ -18343,7 +18307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.257307754417292</v>
+        <v>1.228230569558901</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.844094545936889</v>
@@ -18432,7 +18396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.2390408452017</v>
+        <v>1.217045814004358</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.91881684785803</v>
@@ -18521,7 +18485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.240163982644266</v>
+        <v>1.220819330845635</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.808523881820861</v>
@@ -18610,7 +18574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.23701987303692</v>
+        <v>1.21662206718628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.935575143131747</v>
@@ -18699,7 +18663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.249632017164645</v>
+        <v>1.227694036934585</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.884967344464838</v>
@@ -18788,7 +18752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.248363626674543</v>
+        <v>1.227210598903907</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.935187219834946</v>
@@ -18877,7 +18841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.253170821231982</v>
+        <v>1.223960518057233</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.835031560349851</v>
@@ -18966,7 +18930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.251542676688393</v>
+        <v>1.219870058800447</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.924594510893676</v>
@@ -19055,7 +19019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.22478599576748</v>
+        <v>1.195635095203994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.948968367977224</v>
@@ -19144,7 +19108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.249727667054188</v>
+        <v>1.220032905714489</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.736416130924885</v>
@@ -19233,7 +19197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.261890329547666</v>
+        <v>1.228966055220253</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.021368376824249</v>
@@ -19322,7 +19286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.251682035042205</v>
+        <v>1.217986857570568</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.024115882412119</v>
@@ -19411,7 +19375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.259125863689666</v>
+        <v>1.225425961470088</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.985802127984812</v>
@@ -19500,7 +19464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.258402655936821</v>
+        <v>1.224673944272624</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.936038735357021</v>
@@ -19589,7 +19553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.240489381553889</v>
+        <v>1.209217077831147</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.053786372041552</v>
@@ -19678,7 +19642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.23452954073876</v>
+        <v>1.205317121648465</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.898494544431039</v>
@@ -19767,7 +19731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.24820213671597</v>
+        <v>1.222094683744547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.109075473565835</v>
@@ -19856,7 +19820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.243018475292642</v>
+        <v>1.214440827351426</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.040576608818038</v>
@@ -19945,7 +19909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.246093649909</v>
+        <v>1.217750893292825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.107460599784083</v>
@@ -20034,7 +19998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.258765909092326</v>
+        <v>1.228614553274994</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.147118082988626</v>
@@ -20123,7 +20087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.236567057056819</v>
+        <v>1.209617776887338</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.059229523185983</v>
@@ -20212,7 +20176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.231513040878567</v>
+        <v>1.208787053172673</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.0248054903723</v>
@@ -20301,7 +20265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.219863334861865</v>
+        <v>1.195150303104516</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.003846612154232</v>
@@ -20390,7 +20354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.236809834713622</v>
+        <v>1.211856176753553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.057913017927296</v>
@@ -20479,7 +20443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.231463219077467</v>
+        <v>1.202851857726156</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.069140091093619</v>
@@ -20568,7 +20532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.227133417732457</v>
+        <v>1.201969171431533</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.058057485113874</v>
@@ -20657,7 +20621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.231380118877443</v>
+        <v>1.199977414441806</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.066637922446575</v>
@@ -20746,7 +20710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.219726507965297</v>
+        <v>1.192407873606325</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.073102754258709</v>
@@ -20835,7 +20799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.220648895022628</v>
+        <v>1.187336089890523</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.916215067657147</v>
@@ -20924,7 +20888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.218320203773108</v>
+        <v>1.187870054140936</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.995631147170051</v>
@@ -21013,7 +20977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.237517890366765</v>
+        <v>1.203997141016618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.987480015279177</v>
@@ -21102,7 +21066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.234310152103096</v>
+        <v>1.197169076032137</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.044315255333533</v>
@@ -21191,7 +21155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.226403122734955</v>
+        <v>1.19242987410214</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.081053039423192</v>
@@ -21280,7 +21244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.224182908418844</v>
+        <v>1.190974364472109</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.090965486148818</v>
@@ -21566,7 +21530,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432880128044252</v>
+        <v>1.422274077958433</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.504080559521447</v>
@@ -21655,7 +21619,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.442972184744312</v>
+        <v>1.432250471082867</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.617652448436958</v>
@@ -21744,7 +21708,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466725847600624</v>
+        <v>1.460288353710107</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.442468535263143</v>
@@ -21833,7 +21797,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463264808013232</v>
+        <v>1.452386238602375</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.427865406821931</v>
@@ -21922,7 +21886,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471761482929123</v>
+        <v>1.46229053702563</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.399354300932552</v>
@@ -22011,7 +21975,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.504191301075654</v>
+        <v>1.486443318020633</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.531203556043611</v>
@@ -22100,7 +22064,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526744896950777</v>
+        <v>1.510855566460967</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.689370345334818</v>
@@ -22189,7 +22153,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536975261984745</v>
+        <v>1.519689129011312</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.521100281573795</v>
@@ -22278,7 +22242,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544881829050642</v>
+        <v>1.52597721741945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.663958896062278</v>
@@ -22367,7 +22331,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538087308305361</v>
+        <v>1.517985687639499</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.539169522273141</v>
@@ -22456,7 +22420,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534927683204083</v>
+        <v>1.520928902037885</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.855847050401367</v>
@@ -22545,7 +22509,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.538552080766973</v>
+        <v>1.526967192472531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.850499850008632</v>
@@ -22634,7 +22598,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.551238021707479</v>
+        <v>1.536709334319216</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.653638975734161</v>
@@ -22723,7 +22687,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568931279212961</v>
+        <v>1.550367896210567</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.790255985390973</v>
@@ -22812,7 +22776,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579246494584194</v>
+        <v>1.559794932875372</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.990082471616058</v>
@@ -22901,7 +22865,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567843057135602</v>
+        <v>1.540346900647795</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.576765351863152</v>
@@ -22990,7 +22954,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577055292124061</v>
+        <v>1.545579132010657</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.86009885738559</v>
@@ -23079,7 +23043,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.55882536268955</v>
+        <v>1.529121787563375</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.784401566727417</v>
@@ -23168,7 +23132,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549222276994196</v>
+        <v>1.522938574098447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.778199420205687</v>
@@ -23257,7 +23221,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551943112549311</v>
+        <v>1.521038406398934</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.046342711784896</v>
@@ -23346,7 +23310,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560348898615305</v>
+        <v>1.531442639312769</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.02687782556013</v>
@@ -23435,7 +23399,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564315524383231</v>
+        <v>1.534448295015572</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.832083919407502</v>
@@ -23524,7 +23488,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561679532167738</v>
+        <v>1.527741116599232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.014891889616434</v>
@@ -23613,7 +23577,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.551624249050729</v>
+        <v>1.522397431424473</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.047293218622617</v>
@@ -23702,7 +23666,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559196024397208</v>
+        <v>1.530789553348603</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.77914522581212</v>
@@ -23791,7 +23755,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568766547141695</v>
+        <v>1.533458377968016</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.565223487048028</v>
@@ -23880,7 +23844,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557686259018305</v>
+        <v>1.516377191928117</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.061572045193226</v>
@@ -23969,7 +23933,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536555202289438</v>
+        <v>1.495112907839877</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935047350121051</v>
@@ -24058,7 +24022,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.533836529642159</v>
+        <v>1.490832174821605</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.11149443641371</v>
@@ -24147,7 +24111,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.529312483033685</v>
+        <v>1.48572118721309</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.986391809967557</v>
@@ -24236,7 +24200,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.526989258409785</v>
+        <v>1.489672553829447</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.988536204545926</v>
@@ -24325,7 +24289,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524549038383957</v>
+        <v>1.490593135287051</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.167502144345901</v>
@@ -24414,7 +24378,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532589440410417</v>
+        <v>1.497657090591995</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.803798013823771</v>
@@ -24503,7 +24467,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.533054681257222</v>
+        <v>1.4877410658883</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.76031270723517</v>
@@ -24592,7 +24556,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.533245725570017</v>
+        <v>1.489736876196518</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.724826523940173</v>
@@ -24681,7 +24645,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.528080267179393</v>
+        <v>1.488293841447325</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.267419441001449</v>
@@ -24770,7 +24734,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.515961966130097</v>
+        <v>1.469744775407845</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.059899197207495</v>
@@ -24859,7 +24823,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516178069392073</v>
+        <v>1.465959836358137</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.624397883901366</v>
@@ -24948,7 +24912,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.513785427617554</v>
+        <v>1.460732247085641</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.823644147485612</v>
@@ -25037,7 +25001,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508733134401479</v>
+        <v>1.452227382488675</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.966853827828474</v>
@@ -25126,7 +25090,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.504898961920751</v>
+        <v>1.454740185713552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.963146386748359</v>
@@ -25215,7 +25179,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.509943706577149</v>
+        <v>1.46183198659464</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.736537112051574</v>
@@ -25304,7 +25268,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522834924661969</v>
+        <v>1.475201892074546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.893247318384673</v>
@@ -25393,7 +25357,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530959458257479</v>
+        <v>1.477391690775772</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.813766907274255</v>
@@ -25482,7 +25446,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5329569994448</v>
+        <v>1.475551012557942</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.854856095303359</v>
@@ -25571,7 +25535,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.546592047424787</v>
+        <v>1.480532598077449</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.924455635153687</v>
@@ -25660,7 +25624,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.541518222821689</v>
+        <v>1.473906140956688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.082281556352787</v>
@@ -25749,7 +25713,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.538441002052208</v>
+        <v>1.47228231775877</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.755652543262025</v>
@@ -25838,7 +25802,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542706185096525</v>
+        <v>1.484568552514859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.726646325596593</v>
@@ -26124,7 +26088,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514736614416571</v>
+        <v>1.518074058943762</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.587437401816039</v>
@@ -26213,7 +26177,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.534234071545654</v>
+        <v>1.53458623148158</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.636920620801595</v>
@@ -26302,7 +26266,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567907422275227</v>
+        <v>1.562549199116888</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.353612134520106</v>
@@ -26391,7 +26355,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.59865619649293</v>
+        <v>1.59261904528626</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.568497689380059</v>
@@ -26480,7 +26444,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.63939490116317</v>
+        <v>1.631552505622837</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.372382185961647</v>
@@ -26569,7 +26533,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.672128758660892</v>
+        <v>1.65795031052664</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.47998296475892</v>
@@ -26658,7 +26622,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668350210577594</v>
+        <v>1.656037321453286</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.739511121862401</v>
@@ -26747,7 +26711,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.678197340812951</v>
+        <v>1.669792324052559</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.876174675384824</v>
@@ -26836,7 +26800,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.684728885353674</v>
+        <v>1.683331298462993</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.867983600751996</v>
@@ -26925,7 +26889,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.674387496460238</v>
+        <v>1.674519671033806</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.802198514596362</v>
@@ -27014,7 +26978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654926058461031</v>
+        <v>1.659836399789133</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.720135832164274</v>
@@ -27103,7 +27067,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653772386938458</v>
+        <v>1.657267989129849</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.659880574192182</v>
@@ -27192,7 +27156,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.66339011882693</v>
+        <v>1.663359245449979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.676137707653052</v>
@@ -27281,7 +27245,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.711335512537531</v>
+        <v>1.702996660834272</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.924916113403194</v>
@@ -27370,7 +27334,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712554712370997</v>
+        <v>1.705554694459766</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.877958333705092</v>
@@ -27459,7 +27423,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.701387539267484</v>
+        <v>1.690511627637994</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.988467749607402</v>
@@ -27548,7 +27512,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695929926462623</v>
+        <v>1.681293774958228</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.07547770414784</v>
@@ -27637,7 +27601,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.708692446696856</v>
+        <v>1.691288816890782</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.999336969109625</v>
@@ -27726,7 +27690,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.695289570546336</v>
+        <v>1.677951150842744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.769259312200378</v>
@@ -27815,7 +27779,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.684413866736935</v>
+        <v>1.666352024668248</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.024579114109477</v>
@@ -27904,7 +27868,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.681888394995617</v>
+        <v>1.665513754034541</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.765812063006134</v>
@@ -27993,7 +27957,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.684811861659962</v>
+        <v>1.666588551558042</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.742682902737959</v>
@@ -28082,7 +28046,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.706984663777809</v>
+        <v>1.678905388930518</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.740154336611045</v>
@@ -28171,7 +28135,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.672401285047855</v>
+        <v>1.644095463284499</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.807963475603195</v>
@@ -28260,7 +28224,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.674933601886622</v>
+        <v>1.648719830061429</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.245241246967439</v>
@@ -28349,7 +28313,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.675339598831997</v>
+        <v>1.652639622422474</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.238205890200248</v>
@@ -28438,7 +28402,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.649687267694294</v>
+        <v>1.631819722416303</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.169864579302118</v>
@@ -28527,7 +28491,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.612985586881247</v>
+        <v>1.594434441757548</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.862406923658963</v>
@@ -28616,7 +28580,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605584451710313</v>
+        <v>1.585476782066139</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.823462752897121</v>
@@ -28705,7 +28669,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.596531455450683</v>
+        <v>1.57538472064882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.731370185049842</v>
@@ -28794,7 +28758,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584027089982435</v>
+        <v>1.570638742879493</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.006459902804063</v>
@@ -28883,7 +28847,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588206983193812</v>
+        <v>1.576029551959923</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.051274775587479</v>
@@ -28972,7 +28936,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.564332030965757</v>
+        <v>1.559076229018548</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.866356977180279</v>
@@ -29061,7 +29025,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550601362247951</v>
+        <v>1.546484429144247</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.674392375831208</v>
@@ -29150,7 +29114,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562019758810825</v>
+        <v>1.554423354543766</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.761811997291267</v>
@@ -29239,7 +29203,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.560323300890131</v>
+        <v>1.552158930445097</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.021603660366993</v>
@@ -29328,7 +29292,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55903566476036</v>
+        <v>1.549699973397221</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.032644198410348</v>
@@ -29417,7 +29381,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563240553274876</v>
+        <v>1.557685591768288</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.773771495700765</v>
@@ -29506,7 +29470,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566904751305286</v>
+        <v>1.561644976931952</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.607213670255821</v>
@@ -29595,7 +29559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558626969466543</v>
+        <v>1.545166548918685</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.928338533879565</v>
@@ -29684,7 +29648,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554781099474898</v>
+        <v>1.537524401429371</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.755916566836058</v>
@@ -29773,7 +29737,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583714150535395</v>
+        <v>1.553650777164836</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.610173779325404</v>
@@ -29862,7 +29826,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.586927396572485</v>
+        <v>1.563940627807384</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.878566678578931</v>
@@ -29951,7 +29915,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597852478996063</v>
+        <v>1.573935988880401</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.587244169480932</v>
@@ -30040,7 +30004,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602451738042585</v>
+        <v>1.576497619296592</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.889316717972089</v>
@@ -30129,7 +30093,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.612934000346913</v>
+        <v>1.584297741936062</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.860405463255289</v>
@@ -30218,7 +30182,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617743626626689</v>
+        <v>1.587986479208635</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.52540313952659</v>
@@ -30307,7 +30271,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.612860706498328</v>
+        <v>1.577687509044297</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.871463523145615</v>
@@ -30396,7 +30360,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611825182037951</v>
+        <v>1.579135019734025</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.042167900970697</v>
